--- a/MATERIAL LIST.xlsx
+++ b/MATERIAL LIST.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="#,##0.##" numFmtId="164"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <name val="Calibri"/>
@@ -219,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
@@ -281,6 +283,10 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1394,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1472,20 +1478,23 @@
       <c r="D2" t="n">
         <v>150</v>
       </c>
-      <c r="E2" t="n">
-        <v>3750</v>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v>125</v>
       </c>
-      <c r="G2" t="n">
-        <v>3125</v>
+      <c r="G2">
+        <f>C2*F2</f>
+        <v/>
       </c>
       <c r="H2" t="n">
         <v>1.5</v>
       </c>
-      <c r="I2" t="n">
-        <v>37.5</v>
+      <c r="I2">
+        <f>C2*H2</f>
+        <v/>
       </c>
       <c r="J2" t="n">
         <v>292</v>
@@ -1506,20 +1515,23 @@
       <c r="D3" t="n">
         <v>200</v>
       </c>
-      <c r="E3" t="n">
-        <v>5000</v>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v/>
       </c>
       <c r="F3" t="n">
         <v>150</v>
       </c>
-      <c r="G3" t="n">
-        <v>3750</v>
+      <c r="G3">
+        <f>C3*F3</f>
+        <v/>
       </c>
       <c r="H3" t="n">
         <v>1.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>37.5</v>
+      <c r="I3">
+        <f>C3*H3</f>
+        <v/>
       </c>
       <c r="J3" t="n">
         <v>72</v>
@@ -1540,20 +1552,23 @@
       <c r="D4" t="n">
         <v>380</v>
       </c>
-      <c r="E4" t="n">
-        <v>63840</v>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v/>
       </c>
       <c r="F4" t="n">
         <v>330</v>
       </c>
-      <c r="G4" t="n">
-        <v>55440</v>
+      <c r="G4">
+        <f>C4*F4</f>
+        <v/>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
-      <c r="I4" t="n">
-        <v>554.4</v>
+      <c r="I4">
+        <f>C4*H4</f>
+        <v/>
       </c>
       <c r="J4" t="n">
         <v>3519</v>
@@ -1574,20 +1589,23 @@
       <c r="D5" t="n">
         <v>650</v>
       </c>
-      <c r="E5" t="n">
-        <v>24050</v>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v/>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="G5">
+        <f>C5*F5</f>
+        <v/>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>148</v>
+      <c r="I5">
+        <f>C5*H5</f>
+        <v/>
       </c>
       <c r="J5" t="n">
         <v>1346</v>
@@ -1608,20 +1626,23 @@
       <c r="D6" t="n">
         <v>400</v>
       </c>
-      <c r="E6" t="n">
-        <v>3600</v>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v/>
       </c>
       <c r="F6" t="n">
         <v>325</v>
       </c>
-      <c r="G6" t="n">
-        <v>2925</v>
+      <c r="G6">
+        <f>C6*F6</f>
+        <v/>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>27</v>
+      <c r="I6">
+        <f>C6*H6</f>
+        <v/>
       </c>
       <c r="J6" t="n">
         <v>115</v>
@@ -1642,20 +1663,23 @@
       <c r="D7" t="n">
         <v>450</v>
       </c>
-      <c r="E7" t="n">
-        <v>7200</v>
+      <c r="E7">
+        <f>C7*D7</f>
+        <v/>
       </c>
       <c r="F7" t="n">
         <v>360</v>
       </c>
-      <c r="G7" t="n">
-        <v>5760</v>
+      <c r="G7">
+        <f>C7*F7</f>
+        <v/>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
-      <c r="I7" t="n">
-        <v>57.6</v>
+      <c r="I7">
+        <f>C7*H7</f>
+        <v/>
       </c>
       <c r="J7" t="n">
         <v>395</v>
@@ -1676,20 +1700,23 @@
       <c r="D8" t="n">
         <v>655</v>
       </c>
-      <c r="E8" t="n">
-        <v>16375</v>
+      <c r="E8">
+        <f>C8*D8</f>
+        <v/>
       </c>
       <c r="F8" t="n">
         <v>550</v>
       </c>
-      <c r="G8" t="n">
-        <v>13750</v>
+      <c r="G8">
+        <f>C8*F8</f>
+        <v/>
       </c>
       <c r="H8" t="n">
         <v>5.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>137.5</v>
+      <c r="I8">
+        <f>C8*H8</f>
+        <v/>
       </c>
       <c r="J8" t="n">
         <v>909</v>
@@ -1710,20 +1737,23 @@
       <c r="D9" t="n">
         <v>450</v>
       </c>
-      <c r="E9" t="n">
-        <v>9000</v>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v/>
       </c>
       <c r="F9" t="n">
         <v>350</v>
       </c>
-      <c r="G9" t="n">
-        <v>7000</v>
+      <c r="G9">
+        <f>C9*F9</f>
+        <v/>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>70</v>
+      <c r="I9">
+        <f>C9*H9</f>
+        <v/>
       </c>
       <c r="J9" t="n">
         <v>507</v>
@@ -1744,20 +1774,23 @@
       <c r="D10" t="n">
         <v>1000</v>
       </c>
-      <c r="E10" t="n">
-        <v>1000</v>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v/>
       </c>
       <c r="F10" t="n">
         <v>900</v>
       </c>
-      <c r="G10" t="n">
-        <v>900</v>
+      <c r="G10">
+        <f>C10*F10</f>
+        <v/>
       </c>
       <c r="H10" t="n">
         <v>15</v>
       </c>
-      <c r="I10" t="n">
-        <v>15</v>
+      <c r="I10">
+        <f>C10*H10</f>
+        <v/>
       </c>
       <c r="J10" t="n">
         <v>18</v>
@@ -1778,20 +1811,23 @@
       <c r="D11" t="n">
         <v>1750</v>
       </c>
-      <c r="E11" t="n">
-        <v>1750</v>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v/>
       </c>
       <c r="F11" t="n">
         <v>1600</v>
       </c>
-      <c r="G11" t="n">
-        <v>1600</v>
+      <c r="G11">
+        <f>C11*F11</f>
+        <v/>
       </c>
       <c r="H11" t="n">
         <v>24</v>
       </c>
-      <c r="I11" t="n">
-        <v>24</v>
+      <c r="I11">
+        <f>C11*H11</f>
+        <v/>
       </c>
       <c r="J11" t="n">
         <v>63</v>
@@ -1812,20 +1848,23 @@
       <c r="D12" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
-        <v>810</v>
+      <c r="E12">
+        <f>C12*D12</f>
+        <v/>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
-      <c r="G12" t="n">
-        <v>540</v>
+      <c r="G12">
+        <f>C12*F12</f>
+        <v/>
       </c>
       <c r="H12" t="n">
         <v>0.25</v>
       </c>
-      <c r="I12" t="n">
-        <v>6.75</v>
+      <c r="I12">
+        <f>C12*H12</f>
+        <v/>
       </c>
       <c r="J12" t="n">
         <v>109</v>
@@ -1846,20 +1885,23 @@
       <c r="D13" t="n">
         <v>135</v>
       </c>
-      <c r="E13" t="n">
-        <v>270</v>
+      <c r="E13">
+        <f>C13*D13</f>
+        <v/>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
-      <c r="G13" t="n">
-        <v>200</v>
+      <c r="G13">
+        <f>C13*F13</f>
+        <v/>
       </c>
       <c r="H13" t="n">
         <v>1.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
+      <c r="I13">
+        <f>C13*H13</f>
+        <v/>
       </c>
       <c r="J13" t="n">
         <v>32</v>
@@ -1880,20 +1922,23 @@
       <c r="D14" t="n">
         <v>250</v>
       </c>
-      <c r="E14" t="n">
-        <v>10500</v>
+      <c r="E14">
+        <f>C14*D14</f>
+        <v/>
       </c>
       <c r="F14" t="n">
         <v>200</v>
       </c>
-      <c r="G14" t="n">
-        <v>8400</v>
+      <c r="G14">
+        <f>C14*F14</f>
+        <v/>
       </c>
       <c r="H14" t="n">
         <v>2.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>105</v>
+      <c r="I14">
+        <f>C14*H14</f>
+        <v/>
       </c>
       <c r="J14" t="n">
         <v>1355</v>
@@ -1914,20 +1959,23 @@
       <c r="D15" t="n">
         <v>325</v>
       </c>
-      <c r="E15" t="n">
-        <v>28600</v>
+      <c r="E15">
+        <f>C15*D15</f>
+        <v/>
       </c>
       <c r="F15" t="n">
         <v>275</v>
       </c>
-      <c r="G15" t="n">
-        <v>24200</v>
+      <c r="G15">
+        <f>C15*F15</f>
+        <v/>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
-      <c r="I15" t="n">
-        <v>286</v>
+      <c r="I15">
+        <f>C15*H15</f>
+        <v/>
       </c>
       <c r="J15" t="n">
         <v>4612</v>
@@ -1948,23 +1996,44 @@
       <c r="D16" t="n">
         <v>60</v>
       </c>
-      <c r="E16" t="n">
-        <v>960</v>
+      <c r="E16">
+        <f>C16*D16</f>
+        <v/>
       </c>
       <c r="F16" t="n">
         <v>40</v>
       </c>
-      <c r="G16" t="n">
-        <v>640</v>
+      <c r="G16">
+        <f>C16*F16</f>
+        <v/>
       </c>
       <c r="H16" t="n">
         <v>0.3</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.8</v>
+      <c r="I16">
+        <f>C16*H16</f>
+        <v/>
       </c>
       <c r="J16" t="n">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="31">
+        <f>SUM(E2:E17)</f>
+        <v/>
+      </c>
+      <c r="G19" s="31">
+        <f>SUM(G2:G17)</f>
+        <v/>
+      </c>
+      <c r="I19" s="31">
+        <f>SUM(I2:I17)</f>
+        <v/>
+      </c>
+      <c r="J19" s="32">
+        <f>SUM(J2:J17)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
